--- a/Carbamazepine/Data/Mastersheet_C.xlsx
+++ b/Carbamazepine/Data/Mastersheet_C.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/Carbamazepine/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA30851A-7581-4B93-B061-4922F082CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{FA30851A-7581-4B93-B061-4922F082CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B9BAAA6-F730-41EE-BB16-F3CA77D1D551}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{057AFC9D-ED63-49E6-821F-47BCC2E6B555}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="5" r:id="rId1"/>
+    <sheet name="Biomass" sheetId="6" r:id="rId2"/>
+    <sheet name="Biomass_change" sheetId="7" r:id="rId3"/>
+    <sheet name="Comp" sheetId="3" r:id="rId4"/>
+    <sheet name="FvFm" sheetId="2" r:id="rId5"/>
+    <sheet name="insitu" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +40,316 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Catherine Schlenker</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{075EFD45-C96A-4E0D-B677-B23D83EBF2F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{63CCB57F-8BC1-4AC5-853E-DBD00FF82273}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+su</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1D96D55B-B49E-4B42-A35F-9D0ABDE04622}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mg/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AB45DFEB-FE6F-466C-A09F-3E68354B1B36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0E2B76C3-EAF8-4216-AE76-A95154508439}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umhos/cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{D6AA0878-E15D-4382-933A-EB45A46344CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Catherine Schlenker</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{62A9EA0B-4356-44F6-8B3F-5982AD5398BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{010337BB-0C12-4CF6-929A-528CCECCA4F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+su</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B916E328-9708-4BC0-9A32-E2D599851514}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mg/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FCB87A4A-6544-4318-BAEA-25ADCD76492C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5BC384E8-E703-4FF7-989C-68A8D2D29E09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+umhos/cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2657FCD1-4551-4143-9B06-A76BCE4031AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="33">
   <si>
     <t>Bioassay</t>
   </si>
@@ -107,20 +420,60 @@
     <t>percent_change</t>
   </si>
   <si>
-    <t>Total_Chl_a_mean</t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>secchi</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Phosphate</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +484,30 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -143,9 +516,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,11 +855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD67AAF-295D-433E-A08C-2B2CF526AC31}">
-  <dimension ref="A1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C99A086-97F3-45DD-83BE-9DC2DD57CE6B}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I43" sqref="I43:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +867,7 @@
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,14 +889,32 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -542,14 +936,32 @@
       <c r="G2">
         <v>6.66</v>
       </c>
-      <c r="H2">
-        <v>6.55</v>
-      </c>
-      <c r="I2">
-        <v>-48.539638386648114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="M2">
+        <v>8.49</v>
+      </c>
+      <c r="N2">
+        <v>9.44</v>
+      </c>
+      <c r="O2">
+        <v>25.75</v>
+      </c>
+      <c r="P2">
+        <v>68.45</v>
+      </c>
+      <c r="Q2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -571,11 +983,8 @@
       <c r="G3">
         <v>6.54</v>
       </c>
-      <c r="I3">
-        <v>-49.466852109411214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -597,11 +1006,8 @@
       <c r="G4">
         <v>6.66</v>
       </c>
-      <c r="I4">
-        <v>-48.539638386648114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -623,11 +1029,8 @@
       <c r="G5">
         <v>6.9</v>
       </c>
-      <c r="I5">
-        <v>-46.685210941121916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -649,11 +1052,8 @@
       <c r="G6">
         <v>5.99</v>
       </c>
-      <c r="I6">
-        <v>-53.716581672075407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -675,14 +1075,14 @@
       <c r="G7">
         <v>15</v>
       </c>
-      <c r="H7">
-        <v>12.941999999999998</v>
-      </c>
-      <c r="I7">
-        <v>15.901715345387126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -704,11 +1104,8 @@
       <c r="G8">
         <v>12.37</v>
       </c>
-      <c r="I8">
-        <v>-4.4197187451707558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -730,11 +1127,8 @@
       <c r="G9">
         <v>9.26</v>
       </c>
-      <c r="I9">
-        <v>-28.450007726781017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -756,11 +1150,8 @@
       <c r="G10">
         <v>17.13</v>
       </c>
-      <c r="I10">
-        <v>32.359758924432093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -782,11 +1173,8 @@
       <c r="G11">
         <v>10.95</v>
       </c>
-      <c r="I11">
-        <v>-15.391747797867403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -808,14 +1196,14 @@
       <c r="G12">
         <v>14.86</v>
       </c>
-      <c r="H12">
-        <v>14.462</v>
-      </c>
-      <c r="I12">
-        <v>14.819966002163509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -837,11 +1225,8 @@
       <c r="G13">
         <v>16.88</v>
       </c>
-      <c r="I13">
-        <v>30.428063668675637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -863,11 +1248,8 @@
       <c r="G14">
         <v>6.64</v>
       </c>
-      <c r="I14">
-        <v>-48.694174007108636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -889,11 +1271,8 @@
       <c r="G15">
         <v>15.23</v>
       </c>
-      <c r="I15">
-        <v>17.678874980683066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -915,11 +1294,8 @@
       <c r="G16">
         <v>18.7</v>
       </c>
-      <c r="I16">
-        <v>44.490805130582615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -941,14 +1317,14 @@
       <c r="G17">
         <v>16.95</v>
       </c>
-      <c r="H17">
-        <v>15.558000000000002</v>
-      </c>
-      <c r="I17">
-        <v>30.968938340287451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -970,11 +1346,8 @@
       <c r="G18">
         <v>7.83</v>
       </c>
-      <c r="I18">
-        <v>-39.499304589707918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -996,11 +1369,8 @@
       <c r="G19">
         <v>15.04</v>
       </c>
-      <c r="I19">
-        <v>16.210786586308153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1022,11 +1392,8 @@
       <c r="G20">
         <v>17.96</v>
       </c>
-      <c r="I20">
-        <v>38.772987173543527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1048,11 +1415,8 @@
       <c r="G21">
         <v>20.010000000000002</v>
       </c>
-      <c r="I21">
-        <v>54.612888270746438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1074,14 +1438,14 @@
       <c r="G22">
         <v>17.809999999999999</v>
       </c>
-      <c r="H22">
-        <v>18.254000000000001</v>
-      </c>
-      <c r="I22">
-        <v>37.613970020089639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1103,11 +1467,8 @@
       <c r="G23">
         <v>18.03</v>
       </c>
-      <c r="I23">
-        <v>39.313861845155337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1129,11 +1490,8 @@
       <c r="G24">
         <v>18.82</v>
       </c>
-      <c r="I24">
-        <v>45.418018853345714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1155,11 +1513,8 @@
       <c r="G25">
         <v>18.05</v>
       </c>
-      <c r="I25">
-        <v>39.468397465615844</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1181,11 +1536,8 @@
       <c r="G26">
         <v>18.559999999999999</v>
       </c>
-      <c r="I26">
-        <v>43.409055787358994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1207,14 +1559,14 @@
       <c r="G27">
         <v>17.68</v>
       </c>
-      <c r="H27">
-        <v>17.672000000000004</v>
-      </c>
-      <c r="I27">
-        <v>36.609488487096293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1236,11 +1588,8 @@
       <c r="G28">
         <v>16.66</v>
       </c>
-      <c r="I28">
-        <v>28.728171843609967</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1262,11 +1611,8 @@
       <c r="G29">
         <v>18.010000000000002</v>
       </c>
-      <c r="I29">
-        <v>39.159326224694823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1288,11 +1634,8 @@
       <c r="G30">
         <v>17.829999999999998</v>
       </c>
-      <c r="I30">
-        <v>37.768505640550146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1314,11 +1657,8 @@
       <c r="G31">
         <v>18.18</v>
       </c>
-      <c r="I31">
-        <v>40.472878998609197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1340,14 +1680,14 @@
       <c r="G32">
         <v>16.84</v>
       </c>
-      <c r="H32">
-        <v>17.015999999999998</v>
-      </c>
-      <c r="I32">
-        <v>30.118992427754616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1369,11 +1709,8 @@
       <c r="G33">
         <v>17.73</v>
       </c>
-      <c r="I33">
-        <v>36.995827538247589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1395,11 +1732,8 @@
       <c r="G34">
         <v>17.55</v>
       </c>
-      <c r="I34">
-        <v>35.60500695410294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1421,11 +1755,8 @@
       <c r="G35">
         <v>16.329999999999998</v>
       </c>
-      <c r="I35">
-        <v>26.178334106011437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1447,11 +1778,8 @@
       <c r="G36">
         <v>16.63</v>
       </c>
-      <c r="I36">
-        <v>28.496368412919189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1473,14 +1801,14 @@
       <c r="G37">
         <v>15.78</v>
       </c>
-      <c r="H37">
-        <v>17.064</v>
-      </c>
-      <c r="I37">
-        <v>21.928604543347252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1502,11 +1830,8 @@
       <c r="G38">
         <v>17.22</v>
       </c>
-      <c r="I38">
-        <v>33.05516921650441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1528,11 +1853,8 @@
       <c r="G39">
         <v>17.47</v>
       </c>
-      <c r="I39">
-        <v>34.986864472260862</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1554,11 +1876,8 @@
       <c r="G40">
         <v>17.559999999999999</v>
       </c>
-      <c r="I40">
-        <v>35.682274764333187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1580,11 +1899,8 @@
       <c r="G41">
         <v>17.29</v>
       </c>
-      <c r="I41">
-        <v>33.59604388811622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1606,14 +1922,14 @@
       <c r="G42">
         <v>16.260000000000002</v>
       </c>
-      <c r="H42">
-        <v>16.661999999999999</v>
-      </c>
-      <c r="I42">
-        <v>25.637459434399656</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1635,11 +1951,8 @@
       <c r="G43">
         <v>16.41</v>
       </c>
-      <c r="I43">
-        <v>26.796476587853519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1661,11 +1974,8 @@
       <c r="G44">
         <v>16.399999999999999</v>
       </c>
-      <c r="I44">
-        <v>26.719208777623248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1687,11 +1997,8 @@
       <c r="G45">
         <v>16.73</v>
       </c>
-      <c r="I45">
-        <v>29.269046515221781</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1713,11 +2020,4040 @@
       <c r="G46">
         <v>17.510000000000002</v>
       </c>
-      <c r="I46">
-        <v>35.295935713181919</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB3ABB-AB1E-4BBB-8835-780C5D1899B0}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>17.510000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8DD69-6E91-4FB7-934F-403B34C7B363}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>6.66</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(F2:F6)</f>
+        <v>6.55</v>
+      </c>
+      <c r="H2">
+        <f>((F2-$G$7)/$G$7)*100</f>
+        <v>-48.539638386648114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>6.54</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H46" si="0">((F3-$G$7)/$G$7)*100</f>
+        <v>-49.466852109411214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>6.66</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-48.539638386648114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>6.9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-46.685210941121916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>5.99</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-53.716581672075407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(F7:F11)</f>
+        <v>12.941999999999998</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>15.901715345387126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>12.37</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-4.4197187451707558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9.26</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-28.450007726781017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>17.13</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>32.359758924432093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>10.95</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-15.391747797867403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>14.86</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(F12:F16)</f>
+        <v>14.462</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>14.819966002163509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>16.88</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>30.428063668675637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>6.64</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-48.694174007108636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>15.23</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>17.678874980683066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>18.7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>44.490805130582615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>16.95</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(F17:F21)</f>
+        <v>15.558000000000002</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>30.968938340287451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>7.83</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-39.499304589707918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>15.04</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>16.210786586308153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>17.96</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>38.772987173543527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>54.612888270746438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(F22:F26)</f>
+        <v>18.254000000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>37.613970020089639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>18.03</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>39.313861845155337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>18.82</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>45.418018853345714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>18.05</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>39.468397465615844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>43.409055787358994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>17.68</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(F27:F31)</f>
+        <v>17.672000000000004</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>36.609488487096293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>16.66</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>28.728171843609967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>39.159326224694823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>37.768505640550146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>18.18</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>40.472878998609197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>16.84</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(F32:F36)</f>
+        <v>17.015999999999998</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>30.118992427754616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>17.73</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>36.995827538247589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>17.55</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>35.60500695410294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>26.178334106011437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>16.63</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>28.496368412919189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>15.78</v>
+      </c>
+      <c r="G37">
+        <f>AVERAGE(F37:F41)</f>
+        <v>17.064</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>21.928604543347252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>17.22</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>33.05516921650441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>17.47</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>34.986864472260862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>35.682274764333187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>17.29</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>33.59604388811622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(F42:F46)</f>
+        <v>16.661999999999999</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>25.637459434399656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>16.41</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>26.796476587853519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>26.719208777623248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>16.73</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>29.269046515221781</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>35.295935713181919</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCD0F97-8D3D-4AF1-89F8-23232854F18D}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>16.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A0728-35A7-476B-A5DD-54943C8C9A75}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAFA59B-49F2-4CCB-9650-AAFED03CC7D5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="B2">
+        <v>8.49</v>
+      </c>
+      <c r="C2">
+        <v>9.44</v>
+      </c>
+      <c r="D2">
+        <v>25.75</v>
+      </c>
+      <c r="E2">
+        <v>68.45</v>
+      </c>
+      <c r="F2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Carbamazepine/Data/Mastersheet_C.xlsx
+++ b/Carbamazepine/Data/Mastersheet_C.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/Carbamazepine/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{FA30851A-7581-4B93-B061-4922F082CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B9BAAA6-F730-41EE-BB16-F3CA77D1D551}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{FA30851A-7581-4B93-B061-4922F082CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA8EF0E-4E75-43AC-BF49-212A29FD9487}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{057AFC9D-ED63-49E6-821F-47BCC2E6B555}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="5" r:id="rId1"/>
-    <sheet name="Biomass" sheetId="6" r:id="rId2"/>
-    <sheet name="Biomass_change" sheetId="7" r:id="rId3"/>
-    <sheet name="Comp" sheetId="3" r:id="rId4"/>
-    <sheet name="FvFm" sheetId="2" r:id="rId5"/>
-    <sheet name="insitu" sheetId="4" r:id="rId6"/>
+    <sheet name="insitu" sheetId="4" r:id="rId2"/>
+    <sheet name="Biomass" sheetId="6" r:id="rId3"/>
+    <sheet name="Biomass_change" sheetId="7" r:id="rId4"/>
+    <sheet name="Comp" sheetId="3" r:id="rId5"/>
+    <sheet name="FvFm" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -859,7 +859,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:J43"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,6 +2028,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAFA59B-49F2-4CCB-9650-AAFED03CC7D5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="B2">
+        <v>8.49</v>
+      </c>
+      <c r="C2">
+        <v>9.44</v>
+      </c>
+      <c r="D2">
+        <v>25.75</v>
+      </c>
+      <c r="E2">
+        <v>68.45</v>
+      </c>
+      <c r="F2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB3ABB-AB1E-4BBB-8835-780C5D1899B0}">
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -2966,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A8DD69-6E91-4FB7-934F-403B34C7B363}">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -4126,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCD0F97-8D3D-4AF1-89F8-23232854F18D}">
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -5064,7 +5120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A0728-35A7-476B-A5DD-54943C8C9A75}">
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -6000,60 +6056,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAFA59B-49F2-4CCB-9650-AAFED03CC7D5}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="B2">
-        <v>8.49</v>
-      </c>
-      <c r="C2">
-        <v>9.44</v>
-      </c>
-      <c r="D2">
-        <v>25.75</v>
-      </c>
-      <c r="E2">
-        <v>68.45</v>
-      </c>
-      <c r="F2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Carbamazepine/Data/Mastersheet_C.xlsx
+++ b/Carbamazepine/Data/Mastersheet_C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/Carbamazepine/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{FA30851A-7581-4B93-B061-4922F082CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA8EF0E-4E75-43AC-BF49-212A29FD9487}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{FA30851A-7581-4B93-B061-4922F082CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F9FA9EB-4FF3-4760-A5FE-35FC8356CCF1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{057AFC9D-ED63-49E6-821F-47BCC2E6B555}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{057AFC9D-ED63-49E6-821F-47BCC2E6B555}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Biomass_change" sheetId="7" r:id="rId4"/>
     <sheet name="Comp" sheetId="3" r:id="rId5"/>
     <sheet name="FvFm" sheetId="2" r:id="rId6"/>
+    <sheet name="Nitrate" sheetId="8" r:id="rId7"/>
+    <sheet name="Phosphate" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -349,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="51">
   <si>
     <t>Bioassay</t>
   </si>
@@ -447,14 +449,68 @@
     <t>Phosphate</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>Absorbance 1</t>
+  </si>
+  <si>
+    <t>Absorbance 2</t>
+  </si>
+  <si>
+    <t>Absorbance 3</t>
+  </si>
+  <si>
+    <t>Average Absorbance</t>
+  </si>
+  <si>
+    <t>Concentration 1  (μM NO3)</t>
+  </si>
+  <si>
+    <t>Concentration 2  (μM NO3)</t>
+  </si>
+  <si>
+    <t>Concentration 3  (μM NO3)</t>
+  </si>
+  <si>
+    <t>Average Concentration  (μM NO3)</t>
+  </si>
+  <si>
+    <t>Carbamazepine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0 </t>
+  </si>
+  <si>
+    <t>y = 302.14x + 3.2876</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>raw_abs</t>
+  </si>
+  <si>
+    <t>dilution factor</t>
+  </si>
+  <si>
+    <t>abs_corrected</t>
+  </si>
+  <si>
+    <t>final_uMPO43-</t>
+  </si>
+  <si>
+    <t>acetone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +531,34 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -516,12 +593,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,6 +620,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C99A086-97F3-45DD-83BE-9DC2DD57CE6B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,7 +1001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -936,11 +1023,11 @@
       <c r="G2">
         <v>6.66</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
+      <c r="I2" s="6">
+        <v>6.0068599999999996</v>
+      </c>
+      <c r="J2">
+        <v>-1.10937</v>
       </c>
       <c r="L2" s="4">
         <v>0.39930555555555558</v>
@@ -961,7 +1048,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -983,8 +1070,9 @@
       <c r="G3">
         <v>6.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1006,8 +1094,9 @@
       <c r="G4">
         <v>6.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1029,8 +1118,9 @@
       <c r="G5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1052,8 +1142,9 @@
       <c r="G6">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1075,14 +1166,14 @@
       <c r="G7">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I7" s="6">
+        <v>15.272486669999999</v>
+      </c>
+      <c r="J7">
+        <v>8.0552399999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1104,8 +1195,9 @@
       <c r="G8">
         <v>12.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1127,8 +1219,9 @@
       <c r="G9">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1150,6 +1243,7 @@
       <c r="G10">
         <v>17.13</v>
       </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1174,7 +1268,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1196,11 +1290,11 @@
       <c r="G12">
         <v>14.86</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
+      <c r="I12" s="6">
+        <v>13.96321333</v>
+      </c>
+      <c r="J12">
+        <v>8.2432320000000008</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,7 +1389,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1317,11 +1411,11 @@
       <c r="G17">
         <v>16.95</v>
       </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
+      <c r="I17" s="6">
+        <v>13.358933329999999</v>
+      </c>
+      <c r="J17">
+        <v>8.5252199999999991</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1416,7 +1510,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1438,11 +1532,11 @@
       <c r="G22">
         <v>17.809999999999999</v>
       </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
+      <c r="I22" s="6">
+        <v>16.783186669999999</v>
+      </c>
+      <c r="J22">
+        <v>7.9612439999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1537,7 +1631,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1559,11 +1653,11 @@
       <c r="G27">
         <v>17.68</v>
       </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
+      <c r="I27" s="6">
+        <v>10.337533329999999</v>
+      </c>
+      <c r="J27">
+        <v>8.9012039999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1658,7 +1752,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1680,11 +1774,11 @@
       <c r="G32">
         <v>16.84</v>
       </c>
-      <c r="I32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" t="s">
-        <v>32</v>
+      <c r="I32" s="6">
+        <v>13.05679333</v>
+      </c>
+      <c r="J32">
+        <v>8.6192159999999998</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,7 +1873,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1801,11 +1895,11 @@
       <c r="G37">
         <v>15.78</v>
       </c>
-      <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
+      <c r="I37" s="6">
+        <v>14.46678</v>
+      </c>
+      <c r="J37">
+        <v>8.6192159999999998</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1900,7 +1994,7 @@
         <v>17.29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1922,11 +2016,11 @@
       <c r="G42">
         <v>16.260000000000002</v>
       </c>
-      <c r="I42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" t="s">
-        <v>32</v>
+      <c r="I42" s="6">
+        <v>14.869633329999999</v>
+      </c>
+      <c r="J42">
+        <v>8.8072079999999993</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -6056,4 +6150,632 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2641C4ED-C7AD-43BF-831B-CFE51FD1182D}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45434</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7.5175599999999996</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5.4025800000000004</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5.1004399999999999</v>
+      </c>
+      <c r="M2" s="6">
+        <v>6.0068599999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.9666667000000003E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>15.97748</v>
+      </c>
+      <c r="K3" s="5">
+        <v>15.071059999999999</v>
+      </c>
+      <c r="L3" s="5">
+        <v>14.76892</v>
+      </c>
+      <c r="M3" s="6">
+        <v>15.272486669999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.5333333000000001E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>15.373200000000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>13.25822</v>
+      </c>
+      <c r="L4" s="5">
+        <v>13.25822</v>
+      </c>
+      <c r="M4" s="6">
+        <v>13.96321333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.3333333E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>13.25822</v>
+      </c>
+      <c r="K5" s="5">
+        <v>13.25822</v>
+      </c>
+      <c r="L5" s="5">
+        <v>13.560359999999999</v>
+      </c>
+      <c r="M5" s="6">
+        <v>13.358933329999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4.4666667E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>18.99888</v>
+      </c>
+      <c r="K6" s="5">
+        <v>15.67534</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15.67534</v>
+      </c>
+      <c r="M6" s="6">
+        <v>16.783186669999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.3333333000000001E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>11.74752</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9.6325400000000005</v>
+      </c>
+      <c r="L7" s="5">
+        <v>9.6325400000000005</v>
+      </c>
+      <c r="M7" s="6">
+        <v>10.337533329999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.2333332999999999E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>13.25822</v>
+      </c>
+      <c r="K8" s="5">
+        <v>12.95608</v>
+      </c>
+      <c r="L8" s="5">
+        <v>12.95608</v>
+      </c>
+      <c r="M8" s="6">
+        <v>13.05679333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>14.46678</v>
+      </c>
+      <c r="K9" s="5">
+        <v>14.46678</v>
+      </c>
+      <c r="L9" s="5">
+        <v>14.46678</v>
+      </c>
+      <c r="M9" s="6">
+        <v>14.46678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5">
+        <v>125</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45437</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3.8333332999999997E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>15.373200000000001</v>
+      </c>
+      <c r="K10" s="5">
+        <v>14.76892</v>
+      </c>
+      <c r="L10" s="5">
+        <v>14.46678</v>
+      </c>
+      <c r="M10" s="6">
+        <v>14.869633329999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF24AD4-AE10-4DF6-81CE-03A23D4C5D27}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>-1.10937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.18</v>
+      </c>
+      <c r="F3">
+        <v>8.0552399999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.184</v>
+      </c>
+      <c r="F4">
+        <v>8.2432320000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0.19</v>
+      </c>
+      <c r="F5">
+        <v>8.5252199999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F6">
+        <v>7.9612439999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F7">
+        <v>8.9012039999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0.192</v>
+      </c>
+      <c r="F8">
+        <v>8.6192159999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.192</v>
+      </c>
+      <c r="F9">
+        <v>8.6192159999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="B10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F10">
+        <v>8.8072079999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>